--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>과목</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>1학기</t>
+  </si>
+  <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
+    <t>홍철의</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -138,6 +150,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>과목</t>
   </si>
@@ -41,7 +41,7 @@
     <t>월</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1-3</t>
   </si>
   <si>
     <t>2018</t>
@@ -50,13 +50,22 @@
     <t>1학기</t>
   </si>
   <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>손성훈</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
     <t>알고리즘</t>
   </si>
   <si>
     <t>홍철의</t>
   </si>
   <si>
-    <t>4-5</t>
+    <t>화</t>
   </si>
   <si>
     <t/>
@@ -132,16 +141,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -155,19 +164,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
   <si>
     <t>과목</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>2-4</t>
   </si>
 </sst>
 </file>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
   <si>
     <t>과목</t>
   </si>

--- a/Subject_Dir/Subject_List.xlsx
+++ b/Subject_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="21">
   <si>
     <t>과목</t>
   </si>
